--- a/VersionRecords/Version 5.3.1.3 20170228/版本Bug和特性计划及评审表v5.3.1.3.xlsx
+++ b/VersionRecords/Version 5.3.1.3 20170228/版本Bug和特性计划及评审表v5.3.1.3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.3.1.3 20170228/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.1.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,11 +30,16 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -276,14 +286,42 @@
   </si>
   <si>
     <t>通过</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收实收报表收款功能</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <rPh sb="0" eb="1">
+      <t>w'h</t>
+    </rPh>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>李敖</t>
+    <rPh sb="0" eb="1">
+      <t>li'ao</t>
+    </rPh>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -420,6 +458,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -624,7 +669,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,6 +702,18 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -923,7 +980,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="18">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="8"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -937,7 +994,11 @@
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
+    <cellStyle name="个性色4" xfId="5" builtinId="41"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -951,11 +1012,16 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1287,39 +1353,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="42.625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="47" customWidth="1"/>
-    <col min="6" max="6" width="29.25" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="47" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="47" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
     <col min="8" max="8" width="10" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="47" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
     <col min="10" max="10" width="10" style="48" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="48" customWidth="1"/>
-    <col min="12" max="14" width="11.875" style="47" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="47" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="48" customWidth="1"/>
-    <col min="17" max="17" width="14.125" style="48" customWidth="1"/>
-    <col min="18" max="18" width="9.75" style="48" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" style="48" customWidth="1"/>
+    <col min="12" max="14" width="11.83203125" style="47" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="47" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="48" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" style="48" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="48" customWidth="1"/>
     <col min="19" max="20" width="12" style="49" customWidth="1"/>
     <col min="21" max="21" width="17" style="49" customWidth="1"/>
-    <col min="22" max="22" width="14.125" style="49" customWidth="1"/>
-    <col min="23" max="23" width="41.875" style="48" customWidth="1"/>
-    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="49" customWidth="1"/>
+    <col min="23" max="23" width="41.83203125" style="48" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1">
+    <row r="1" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1452,7 +1518,7 @@
       <c r="W2" s="68"/>
       <c r="X2" s="69"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -1512,33 +1578,69 @@
       <c r="W3" s="71"/>
       <c r="X3" s="69"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="54">
+        <v>42794</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="54">
+        <v>42794</v>
+      </c>
       <c r="K4" s="53"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="62"/>
+      <c r="L4" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>42794</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>29</v>
+      </c>
       <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="T4" s="59">
+        <v>9247</v>
+      </c>
       <c r="U4" s="59"/>
       <c r="V4" s="66"/>
       <c r="W4" s="71"/>
       <c r="X4" s="69"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -1564,7 +1666,7 @@
       <c r="W5" s="71"/>
       <c r="X5" s="69"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1590,7 +1692,7 @@
       <c r="W6" s="71"/>
       <c r="X6" s="69"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1616,7 +1718,7 @@
       <c r="W7" s="72"/>
       <c r="X7" s="69"/>
     </row>
-    <row r="8" spans="1:24" ht="16.5">
+    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1641,7 +1743,7 @@
       <c r="V8" s="59"/>
       <c r="W8" s="60"/>
     </row>
-    <row r="9" spans="1:24" ht="16.5">
+    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1666,7 +1768,7 @@
       <c r="V9" s="59"/>
       <c r="W9" s="60"/>
     </row>
-    <row r="10" spans="1:24" ht="16.5">
+    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1691,7 +1793,7 @@
       <c r="V10" s="59"/>
       <c r="W10" s="60"/>
     </row>
-    <row r="11" spans="1:24" ht="16.5">
+    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1716,7 +1818,7 @@
       <c r="V11" s="59"/>
       <c r="W11" s="71"/>
     </row>
-    <row r="12" spans="1:24" ht="16.5">
+    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -1741,7 +1843,7 @@
       <c r="V12" s="59"/>
       <c r="W12" s="71"/>
     </row>
-    <row r="13" spans="1:24" ht="16.5">
+    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -1766,7 +1868,7 @@
       <c r="V13" s="59"/>
       <c r="W13" s="71"/>
     </row>
-    <row r="14" spans="1:24" ht="16.5">
+    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -1791,7 +1893,7 @@
       <c r="V14" s="73"/>
       <c r="W14" s="74"/>
     </row>
-    <row r="15" spans="1:24" ht="16.5">
+    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -1816,7 +1918,7 @@
       <c r="V15" s="75"/>
       <c r="W15" s="74"/>
     </row>
-    <row r="16" spans="1:24" ht="16.5">
+    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1841,7 +1943,7 @@
       <c r="V16" s="76"/>
       <c r="W16" s="74"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5">
+    <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -1866,7 +1968,7 @@
       <c r="V17" s="75"/>
       <c r="W17" s="74"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5">
+    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -1891,7 +1993,7 @@
       <c r="V18" s="75"/>
       <c r="W18" s="74"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5">
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -1916,7 +2018,7 @@
       <c r="V19" s="77"/>
       <c r="W19" s="62"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5">
+    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -1941,7 +2043,7 @@
       <c r="V20" s="59"/>
       <c r="W20" s="71"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5">
+    <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -1966,7 +2068,7 @@
       <c r="V21" s="59"/>
       <c r="W21" s="71"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5">
+    <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -1991,7 +2093,7 @@
       <c r="V22" s="59"/>
       <c r="W22" s="71"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5">
+    <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2016,7 +2118,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="74"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5">
+    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2041,7 +2143,7 @@
       <c r="V24" s="59"/>
       <c r="W24" s="68"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5">
+    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2066,7 +2168,7 @@
       <c r="V25" s="59"/>
       <c r="W25" s="71"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5">
+    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2091,7 +2193,7 @@
       <c r="V26" s="59"/>
       <c r="W26" s="71"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5">
+    <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2116,7 +2218,7 @@
       <c r="V27" s="59"/>
       <c r="W27" s="71"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5">
+    <row r="28" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2141,7 +2243,7 @@
       <c r="V28" s="59"/>
       <c r="W28" s="71"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5">
+    <row r="29" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2166,7 +2268,7 @@
       <c r="V29" s="59"/>
       <c r="W29" s="71"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5">
+    <row r="30" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2191,7 +2293,7 @@
       <c r="V30" s="59"/>
       <c r="W30" s="71"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5">
+    <row r="31" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2216,7 +2318,7 @@
       <c r="V31" s="59"/>
       <c r="W31" s="71"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5">
+    <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2241,7 +2343,7 @@
       <c r="V32" s="59"/>
       <c r="W32" s="71"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5">
+    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2266,7 +2368,7 @@
       <c r="V33" s="59"/>
       <c r="W33" s="71"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5">
+    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2291,7 +2393,7 @@
       <c r="V34" s="59"/>
       <c r="W34" s="71"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5">
+    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2316,7 +2418,7 @@
       <c r="V35" s="77"/>
       <c r="W35" s="71"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5">
+    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2341,7 +2443,7 @@
       <c r="V36" s="77"/>
       <c r="W36" s="71"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5">
+    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2366,7 +2468,7 @@
       <c r="V37" s="59"/>
       <c r="W37" s="60"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5">
+    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2391,7 +2493,7 @@
       <c r="V38" s="59"/>
       <c r="W38" s="60"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5">
+    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2416,7 +2518,7 @@
       <c r="V39" s="59"/>
       <c r="W39" s="60"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5">
+    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2441,7 +2543,7 @@
       <c r="V40" s="59"/>
       <c r="W40" s="60"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5">
+    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2466,7 +2568,7 @@
       <c r="V41" s="59"/>
       <c r="W41" s="60"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5">
+    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2491,7 +2593,7 @@
       <c r="V42" s="59"/>
       <c r="W42" s="60"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5">
+    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2516,7 +2618,7 @@
       <c r="V43" s="59"/>
       <c r="W43" s="60"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5">
+    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="59"/>
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
@@ -2541,7 +2643,7 @@
       <c r="V44" s="59"/>
       <c r="W44" s="60"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5">
+    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="59"/>
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
@@ -2566,7 +2668,7 @@
       <c r="V45" s="59"/>
       <c r="W45" s="60"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5">
+    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="59"/>
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
@@ -2591,7 +2693,7 @@
       <c r="V46" s="59"/>
       <c r="W46" s="60"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5">
+    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="59"/>
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
@@ -2616,7 +2718,7 @@
       <c r="V47" s="59"/>
       <c r="W47" s="60"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5">
+    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="59"/>
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
@@ -2641,7 +2743,7 @@
       <c r="V48" s="59"/>
       <c r="W48" s="60"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5">
+    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="59"/>
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
@@ -2666,7 +2768,7 @@
       <c r="V49" s="59"/>
       <c r="W49" s="60"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5">
+    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="59"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
@@ -2691,7 +2793,7 @@
       <c r="V50" s="59"/>
       <c r="W50" s="60"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5">
+    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="59"/>
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
@@ -2716,7 +2818,7 @@
       <c r="V51" s="59"/>
       <c r="W51" s="60"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5">
+    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="59"/>
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
@@ -2741,7 +2843,7 @@
       <c r="V52" s="59"/>
       <c r="W52" s="60"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5">
+    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="59"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
@@ -2766,7 +2868,7 @@
       <c r="V53" s="59"/>
       <c r="W53" s="60"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5">
+    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="59"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
@@ -2791,7 +2893,7 @@
       <c r="V54" s="59"/>
       <c r="W54" s="60"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5">
+    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
@@ -2816,7 +2918,7 @@
       <c r="V55" s="59"/>
       <c r="W55" s="60"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5">
+    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="59"/>
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
@@ -2841,7 +2943,7 @@
       <c r="V56" s="59"/>
       <c r="W56" s="60"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5">
+    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -2866,7 +2968,7 @@
       <c r="V57" s="59"/>
       <c r="W57" s="60"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5">
+    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
@@ -2891,7 +2993,7 @@
       <c r="V58" s="59"/>
       <c r="W58" s="60"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5">
+    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="59"/>
       <c r="B59" s="59"/>
       <c r="C59" s="59"/>
@@ -2916,7 +3018,7 @@
       <c r="V59" s="59"/>
       <c r="W59" s="60"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5">
+    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="59"/>
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
@@ -2941,7 +3043,7 @@
       <c r="V60" s="59"/>
       <c r="W60" s="60"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5">
+    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="59"/>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -2966,7 +3068,7 @@
       <c r="V61" s="59"/>
       <c r="W61" s="60"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5">
+    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="59"/>
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
@@ -2991,7 +3093,7 @@
       <c r="V62" s="59"/>
       <c r="W62" s="60"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5">
+    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
@@ -3016,7 +3118,7 @@
       <c r="V63" s="59"/>
       <c r="W63" s="60"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5">
+    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
@@ -3041,7 +3143,7 @@
       <c r="V64" s="59"/>
       <c r="W64" s="60"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5">
+    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -3066,7 +3168,7 @@
       <c r="V65" s="59"/>
       <c r="W65" s="60"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5">
+    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
@@ -3091,7 +3193,7 @@
       <c r="V66" s="59"/>
       <c r="W66" s="60"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5">
+    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="59"/>
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
@@ -3116,7 +3218,7 @@
       <c r="V67" s="59"/>
       <c r="W67" s="60"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5">
+    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="59"/>
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
@@ -3141,7 +3243,7 @@
       <c r="V68" s="59"/>
       <c r="W68" s="60"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5">
+    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="59"/>
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
@@ -3166,7 +3268,7 @@
       <c r="V69" s="59"/>
       <c r="W69" s="60"/>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
@@ -3191,7 +3293,7 @@
       <c r="V70" s="59"/>
       <c r="W70" s="60"/>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A71" s="59"/>
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
@@ -3216,7 +3318,7 @@
       <c r="V71" s="59"/>
       <c r="W71" s="60"/>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A72" s="59"/>
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
@@ -3241,7 +3343,7 @@
       <c r="V72" s="59"/>
       <c r="W72" s="60"/>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A73" s="59"/>
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
@@ -3266,7 +3368,7 @@
       <c r="V73" s="59"/>
       <c r="W73" s="60"/>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A74" s="59"/>
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
@@ -3291,7 +3393,7 @@
       <c r="V74" s="59"/>
       <c r="W74" s="60"/>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A75" s="59"/>
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
@@ -3316,7 +3418,7 @@
       <c r="V75" s="59"/>
       <c r="W75" s="60"/>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
@@ -3341,7 +3443,7 @@
       <c r="V76" s="59"/>
       <c r="W76" s="60"/>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A77" s="59"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
@@ -3366,7 +3468,7 @@
       <c r="V77" s="59"/>
       <c r="W77" s="60"/>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A78" s="59"/>
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
@@ -3391,7 +3493,7 @@
       <c r="V78" s="59"/>
       <c r="W78" s="60"/>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A79" s="59"/>
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
@@ -3416,7 +3518,7 @@
       <c r="V79" s="59"/>
       <c r="W79" s="60"/>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A80" s="59"/>
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
@@ -3441,7 +3543,7 @@
       <c r="V80" s="59"/>
       <c r="W80" s="60"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A81" s="59"/>
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
@@ -3466,7 +3568,7 @@
       <c r="V81" s="59"/>
       <c r="W81" s="60"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A82" s="59"/>
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
@@ -3491,7 +3593,7 @@
       <c r="V82" s="59"/>
       <c r="W82" s="60"/>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A83" s="59"/>
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
@@ -3516,7 +3618,7 @@
       <c r="V83" s="59"/>
       <c r="W83" s="60"/>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A84" s="59"/>
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
@@ -3541,7 +3643,7 @@
       <c r="V84" s="59"/>
       <c r="W84" s="60"/>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A85" s="59"/>
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
@@ -3566,7 +3668,7 @@
       <c r="V85" s="59"/>
       <c r="W85" s="60"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A86" s="59"/>
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
@@ -3591,7 +3693,7 @@
       <c r="V86" s="59"/>
       <c r="W86" s="60"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A87" s="59"/>
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
@@ -3616,7 +3718,7 @@
       <c r="V87" s="59"/>
       <c r="W87" s="60"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A88" s="59"/>
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
@@ -3641,7 +3743,7 @@
       <c r="V88" s="59"/>
       <c r="W88" s="60"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A89" s="59"/>
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
@@ -3666,7 +3768,7 @@
       <c r="V89" s="59"/>
       <c r="W89" s="60"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A90" s="59"/>
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
@@ -3691,7 +3793,7 @@
       <c r="V90" s="59"/>
       <c r="W90" s="60"/>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A91" s="59"/>
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
@@ -3716,7 +3818,7 @@
       <c r="V91" s="59"/>
       <c r="W91" s="60"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A92" s="59"/>
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
@@ -3741,7 +3843,7 @@
       <c r="V92" s="59"/>
       <c r="W92" s="60"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A93" s="59"/>
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
@@ -3766,7 +3868,7 @@
       <c r="V93" s="59"/>
       <c r="W93" s="60"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A94" s="59"/>
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
@@ -3791,7 +3893,7 @@
       <c r="V94" s="59"/>
       <c r="W94" s="60"/>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A95" s="59"/>
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
@@ -3816,7 +3918,7 @@
       <c r="V95" s="59"/>
       <c r="W95" s="60"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A96" s="59"/>
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
@@ -3841,7 +3943,7 @@
       <c r="V96" s="59"/>
       <c r="W96" s="60"/>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A97" s="59"/>
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
@@ -3866,7 +3968,7 @@
       <c r="V97" s="59"/>
       <c r="W97" s="60"/>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A98" s="59"/>
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
@@ -3891,7 +3993,7 @@
       <c r="V98" s="59"/>
       <c r="W98" s="60"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A99" s="59"/>
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
@@ -3916,7 +4018,7 @@
       <c r="V99" s="59"/>
       <c r="W99" s="60"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A100" s="59"/>
       <c r="B100" s="59"/>
       <c r="C100" s="59"/>
@@ -3941,7 +4043,7 @@
       <c r="V100" s="59"/>
       <c r="W100" s="60"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A101" s="59"/>
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
@@ -3966,7 +4068,7 @@
       <c r="V101" s="59"/>
       <c r="W101" s="60"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A102" s="59"/>
       <c r="B102" s="59"/>
       <c r="C102" s="59"/>
@@ -3991,7 +4093,7 @@
       <c r="V102" s="59"/>
       <c r="W102" s="60"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A103" s="59"/>
       <c r="B103" s="59"/>
       <c r="C103" s="59"/>
@@ -4016,7 +4118,7 @@
       <c r="V103" s="59"/>
       <c r="W103" s="60"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A104" s="59"/>
       <c r="B104" s="59"/>
       <c r="C104" s="59"/>
@@ -4041,7 +4143,7 @@
       <c r="V104" s="59"/>
       <c r="W104" s="60"/>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A105" s="59"/>
       <c r="B105" s="59"/>
       <c r="C105" s="59"/>
@@ -4066,7 +4168,7 @@
       <c r="V105" s="59"/>
       <c r="W105" s="60"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A106" s="59"/>
       <c r="B106" s="59"/>
       <c r="C106" s="59"/>
@@ -4091,7 +4193,7 @@
       <c r="V106" s="59"/>
       <c r="W106" s="60"/>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A107" s="59"/>
       <c r="B107" s="59"/>
       <c r="C107" s="59"/>
@@ -4116,7 +4218,7 @@
       <c r="V107" s="59"/>
       <c r="W107" s="60"/>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A108" s="59"/>
       <c r="B108" s="59"/>
       <c r="C108" s="59"/>
@@ -4141,7 +4243,7 @@
       <c r="V108" s="59"/>
       <c r="W108" s="60"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A109" s="59"/>
       <c r="B109" s="59"/>
       <c r="C109" s="59"/>
@@ -4166,7 +4268,7 @@
       <c r="V109" s="59"/>
       <c r="W109" s="60"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A110" s="59"/>
       <c r="B110" s="59"/>
       <c r="C110" s="59"/>
@@ -4191,7 +4293,7 @@
       <c r="V110" s="59"/>
       <c r="W110" s="60"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A111" s="59"/>
       <c r="B111" s="59"/>
       <c r="C111" s="59"/>
@@ -4216,7 +4318,7 @@
       <c r="V111" s="59"/>
       <c r="W111" s="60"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A112" s="59"/>
       <c r="B112" s="59"/>
       <c r="C112" s="59"/>
@@ -4241,7 +4343,7 @@
       <c r="V112" s="59"/>
       <c r="W112" s="60"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A113" s="59"/>
       <c r="B113" s="59"/>
       <c r="C113" s="59"/>
@@ -4266,7 +4368,7 @@
       <c r="V113" s="59"/>
       <c r="W113" s="60"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A114" s="59"/>
       <c r="B114" s="59"/>
       <c r="C114" s="59"/>
@@ -4291,7 +4393,7 @@
       <c r="V114" s="59"/>
       <c r="W114" s="60"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A115" s="59"/>
       <c r="B115" s="59"/>
       <c r="C115" s="59"/>
@@ -4316,7 +4418,7 @@
       <c r="V115" s="59"/>
       <c r="W115" s="60"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A116" s="59"/>
       <c r="B116" s="59"/>
       <c r="C116" s="59"/>
@@ -4341,7 +4443,7 @@
       <c r="V116" s="59"/>
       <c r="W116" s="60"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A117" s="59"/>
       <c r="B117" s="59"/>
       <c r="C117" s="59"/>
@@ -4366,7 +4468,7 @@
       <c r="V117" s="59"/>
       <c r="W117" s="60"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A118" s="59"/>
       <c r="B118" s="59"/>
       <c r="C118" s="59"/>
@@ -4391,7 +4493,7 @@
       <c r="V118" s="59"/>
       <c r="W118" s="60"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A119" s="59"/>
       <c r="B119" s="59"/>
       <c r="C119" s="59"/>
@@ -4416,7 +4518,7 @@
       <c r="V119" s="59"/>
       <c r="W119" s="60"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A120" s="59"/>
       <c r="B120" s="59"/>
       <c r="C120" s="59"/>
@@ -4441,7 +4543,7 @@
       <c r="V120" s="59"/>
       <c r="W120" s="60"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A121" s="59"/>
       <c r="B121" s="59"/>
       <c r="C121" s="59"/>
@@ -4466,7 +4568,7 @@
       <c r="V121" s="59"/>
       <c r="W121" s="60"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A122" s="59"/>
       <c r="B122" s="59"/>
       <c r="C122" s="59"/>
@@ -4491,7 +4593,7 @@
       <c r="V122" s="59"/>
       <c r="W122" s="60"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A123" s="59"/>
       <c r="B123" s="59"/>
       <c r="C123" s="59"/>
@@ -4516,7 +4618,7 @@
       <c r="V123" s="59"/>
       <c r="W123" s="60"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A124" s="59"/>
       <c r="B124" s="59"/>
       <c r="C124" s="59"/>
@@ -4541,7 +4643,7 @@
       <c r="V124" s="59"/>
       <c r="W124" s="60"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A125" s="59"/>
       <c r="B125" s="59"/>
       <c r="C125" s="59"/>
@@ -4566,7 +4668,7 @@
       <c r="V125" s="59"/>
       <c r="W125" s="60"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A126" s="59"/>
       <c r="B126" s="59"/>
       <c r="C126" s="59"/>
@@ -4587,7 +4689,7 @@
       <c r="R126" s="60"/>
       <c r="W126" s="60"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A127" s="59"/>
       <c r="B127" s="59"/>
       <c r="C127" s="59"/>
@@ -4608,7 +4710,7 @@
       <c r="R127" s="60"/>
       <c r="W127" s="60"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A128" s="59"/>
       <c r="B128" s="59"/>
       <c r="C128" s="59"/>
@@ -4629,7 +4731,7 @@
       <c r="R128" s="60"/>
       <c r="W128" s="60"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A129" s="59"/>
       <c r="B129" s="59"/>
       <c r="C129" s="59"/>
@@ -4650,7 +4752,7 @@
       <c r="R129" s="60"/>
       <c r="W129" s="60"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A130" s="59"/>
       <c r="B130" s="59"/>
       <c r="C130" s="59"/>
@@ -4671,7 +4773,7 @@
       <c r="R130" s="60"/>
       <c r="W130" s="60"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A131" s="59"/>
       <c r="B131" s="59"/>
       <c r="C131" s="59"/>
@@ -4692,7 +4794,7 @@
       <c r="R131" s="60"/>
       <c r="W131" s="60"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A132" s="59"/>
       <c r="B132" s="59"/>
       <c r="C132" s="59"/>
@@ -4713,7 +4815,7 @@
       <c r="R132" s="60"/>
       <c r="W132" s="60"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A133" s="59"/>
       <c r="B133" s="59"/>
       <c r="C133" s="59"/>
@@ -4734,7 +4836,7 @@
       <c r="R133" s="60"/>
       <c r="W133" s="60"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="59"/>
       <c r="B134" s="59"/>
       <c r="C134" s="59"/>
@@ -4755,7 +4857,7 @@
       <c r="R134" s="60"/>
       <c r="W134" s="60"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="59"/>
       <c r="B135" s="59"/>
       <c r="C135" s="59"/>
@@ -4776,7 +4878,7 @@
       <c r="R135" s="60"/>
       <c r="W135" s="60"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="59"/>
       <c r="B136" s="59"/>
       <c r="C136" s="59"/>
@@ -4797,7 +4899,7 @@
       <c r="R136" s="60"/>
       <c r="W136" s="60"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="59"/>
       <c r="B137" s="59"/>
       <c r="C137" s="59"/>
@@ -4818,7 +4920,7 @@
       <c r="R137" s="60"/>
       <c r="W137" s="60"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="59"/>
       <c r="B138" s="59"/>
       <c r="C138" s="59"/>
@@ -4839,7 +4941,7 @@
       <c r="R138" s="60"/>
       <c r="W138" s="60"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="59"/>
       <c r="B139" s="59"/>
       <c r="C139" s="59"/>
@@ -4860,7 +4962,7 @@
       <c r="R139" s="60"/>
       <c r="W139" s="60"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="59"/>
       <c r="B140" s="59"/>
       <c r="C140" s="59"/>
@@ -4881,7 +4983,7 @@
       <c r="R140" s="60"/>
       <c r="W140" s="60"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="59"/>
       <c r="B141" s="59"/>
       <c r="C141" s="59"/>
@@ -4902,7 +5004,7 @@
       <c r="R141" s="60"/>
       <c r="W141" s="60"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="59"/>
       <c r="B142" s="59"/>
       <c r="C142" s="59"/>
@@ -4923,7 +5025,7 @@
       <c r="R142" s="60"/>
       <c r="W142" s="60"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="59"/>
       <c r="B143" s="59"/>
       <c r="C143" s="59"/>
@@ -4944,7 +5046,7 @@
       <c r="R143" s="60"/>
       <c r="W143" s="60"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="59"/>
       <c r="B144" s="59"/>
       <c r="C144" s="59"/>
@@ -4965,7 +5067,7 @@
       <c r="R144" s="60"/>
       <c r="W144" s="60"/>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="59"/>
       <c r="B145" s="59"/>
       <c r="C145" s="59"/>
@@ -4986,7 +5088,7 @@
       <c r="R145" s="60"/>
       <c r="W145" s="60"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="59"/>
       <c r="B146" s="59"/>
       <c r="C146" s="59"/>
@@ -5007,7 +5109,7 @@
       <c r="R146" s="60"/>
       <c r="W146" s="60"/>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="59"/>
       <c r="B147" s="59"/>
       <c r="C147" s="59"/>
@@ -5028,7 +5130,7 @@
       <c r="R147" s="60"/>
       <c r="W147" s="60"/>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="59"/>
       <c r="B148" s="59"/>
       <c r="C148" s="59"/>
@@ -5049,7 +5151,7 @@
       <c r="R148" s="60"/>
       <c r="W148" s="60"/>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="59"/>
       <c r="B149" s="59"/>
       <c r="C149" s="59"/>
@@ -5070,7 +5172,7 @@
       <c r="R149" s="60"/>
       <c r="W149" s="60"/>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="59"/>
       <c r="B150" s="59"/>
       <c r="C150" s="59"/>
@@ -5091,7 +5193,7 @@
       <c r="R150" s="60"/>
       <c r="W150" s="60"/>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="59"/>
       <c r="B151" s="59"/>
       <c r="C151" s="59"/>
@@ -5112,7 +5214,7 @@
       <c r="R151" s="60"/>
       <c r="W151" s="60"/>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="59"/>
       <c r="B152" s="59"/>
       <c r="C152" s="59"/>
@@ -5133,7 +5235,7 @@
       <c r="R152" s="60"/>
       <c r="W152" s="60"/>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="59"/>
       <c r="B153" s="59"/>
       <c r="C153" s="59"/>
@@ -5154,7 +5256,7 @@
       <c r="R153" s="60"/>
       <c r="W153" s="60"/>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="59"/>
       <c r="B154" s="59"/>
       <c r="C154" s="59"/>
@@ -5175,7 +5277,7 @@
       <c r="R154" s="60"/>
       <c r="W154" s="60"/>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="59"/>
       <c r="B155" s="59"/>
       <c r="C155" s="59"/>
@@ -5196,7 +5298,7 @@
       <c r="R155" s="60"/>
       <c r="W155" s="60"/>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="59"/>
       <c r="B156" s="59"/>
       <c r="C156" s="59"/>
@@ -5217,7 +5319,7 @@
       <c r="R156" s="60"/>
       <c r="W156" s="60"/>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="59"/>
       <c r="B157" s="59"/>
       <c r="C157" s="59"/>
@@ -5238,7 +5340,7 @@
       <c r="R157" s="60"/>
       <c r="W157" s="60"/>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="59"/>
       <c r="B158" s="59"/>
       <c r="C158" s="59"/>
@@ -5259,7 +5361,7 @@
       <c r="R158" s="60"/>
       <c r="W158" s="60"/>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="59"/>
       <c r="B159" s="59"/>
       <c r="C159" s="59"/>
@@ -5280,7 +5382,7 @@
       <c r="R159" s="60"/>
       <c r="W159" s="60"/>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="59"/>
       <c r="B160" s="59"/>
       <c r="C160" s="59"/>
@@ -5313,7 +5415,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -5338,34 +5440,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="44.375" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.875" customWidth="1"/>
+    <col min="13" max="13" width="54.83203125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="31.125" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>31</v>
       </c>
@@ -5421,7 +5523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5448,27 +5550,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="78" t="s">
         <v>47</v>
       </c>
@@ -5483,7 +5585,7 @@
       <c r="J1" s="79"/>
       <c r="K1" s="79"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>48</v>
       </c>
@@ -5518,7 +5620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="80"/>
       <c r="B3" s="80"/>
       <c r="C3" s="20"/>
@@ -5531,7 +5633,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="81"/>
       <c r="B4" s="82"/>
       <c r="C4" s="20"/>
@@ -5544,7 +5646,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="20"/>
@@ -5557,7 +5659,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="82"/>
       <c r="B6" s="82"/>
       <c r="C6" s="20"/>
@@ -5570,7 +5672,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="82"/>
       <c r="B7" s="82"/>
       <c r="C7" s="20"/>
@@ -5583,7 +5685,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="82"/>
       <c r="B8" s="82"/>
       <c r="C8" s="20"/>
@@ -5596,7 +5698,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="82"/>
       <c r="B9" s="82"/>
       <c r="C9" s="20"/>
@@ -5609,7 +5711,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="81"/>
       <c r="B10" s="81"/>
       <c r="C10" s="20"/>
@@ -5622,7 +5724,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5649,29 +5751,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="83" t="s">
         <v>58</v>
       </c>
@@ -5688,7 +5790,7 @@
       <c r="L1" s="83"/>
       <c r="M1" s="84"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="85"/>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -5703,7 +5805,7 @@
       <c r="L2" s="85"/>
       <c r="M2" s="86"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -5744,7 +5846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5759,7 +5861,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -5774,7 +5876,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -5789,7 +5891,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5804,7 +5906,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -5819,7 +5921,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5834,7 +5936,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5849,7 +5951,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5864,7 +5966,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5879,7 +5981,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5894,7 +5996,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5909,7 +6011,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5948,29 +6050,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="83" t="s">
         <v>58</v>
       </c>
@@ -5987,7 +6089,7 @@
       <c r="L1" s="83"/>
       <c r="M1" s="84"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="85"/>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -6002,7 +6104,7 @@
       <c r="L2" s="85"/>
       <c r="M2" s="86"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -6043,7 +6145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6058,7 +6160,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -6073,7 +6175,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -6088,7 +6190,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6103,7 +6205,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -6118,7 +6220,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6133,7 +6235,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6148,7 +6250,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6163,7 +6265,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6178,7 +6280,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6193,7 +6295,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6208,7 +6310,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6247,29 +6349,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="83" t="s">
         <v>58</v>
       </c>
@@ -6286,7 +6388,7 @@
       <c r="L1" s="83"/>
       <c r="M1" s="84"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="85"/>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -6301,7 +6403,7 @@
       <c r="L2" s="85"/>
       <c r="M2" s="86"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -6342,7 +6444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6357,7 +6459,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -6372,7 +6474,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -6387,7 +6489,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6402,7 +6504,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -6417,7 +6519,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6432,7 +6534,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6447,7 +6549,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6462,7 +6564,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6477,7 +6579,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6492,7 +6594,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6507,7 +6609,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6546,31 +6648,31 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="83" t="s">
         <v>58</v>
       </c>
@@ -6587,7 +6689,7 @@
       <c r="L1" s="83"/>
       <c r="M1" s="84"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="85"/>
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
@@ -6602,7 +6704,7 @@
       <c r="L2" s="85"/>
       <c r="M2" s="86"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -6643,7 +6745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6658,7 +6760,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6673,7 +6775,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -6688,7 +6790,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6703,7 +6805,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6718,7 +6820,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6733,7 +6835,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6748,7 +6850,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6763,7 +6865,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6778,7 +6880,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6793,7 +6895,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6808,7 +6910,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6823,7 +6925,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6862,25 +6964,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -6906,7 +7008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6916,7 +7018,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -6926,7 +7028,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6936,7 +7038,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6946,7 +7048,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6956,7 +7058,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -6966,7 +7068,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6976,7 +7078,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6986,7 +7088,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6996,7 +7098,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7006,7 +7108,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7016,7 +7118,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7026,7 +7128,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7036,7 +7138,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7046,7 +7148,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7056,7 +7158,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7066,7 +7168,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7076,7 +7178,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
